--- a/va_facility_data_2025-02-20/Togus VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Togus%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Togus VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Togus%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R6e5e00af1df240b5a96c9578ab9e3350"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rcde51e34087b4645be967594cad0999d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Radc8ed9436ed4b368f9ebe42d71a509a"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R9f365842b597431c8b7c664ef2b6dd32"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdf21c77b7af342cd87e97f5e57ef4051"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R1d7ff66e8e814144b7e4cc9a0648cd16"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R16164a6737b945f8b9cc24abdb0314eb"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R10039a7b97db4ba9b6c99f3002d6d658"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5d6afcd7d98d4145ae12c6f1399ed30f"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R50fb02b4265c46f492c15cebddf46581"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R27efb83242da48a592320a9fede40077"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9d85f0c4da0c4f94ac9c01ebc93407fd"/>
   </x:sheets>
 </x:workbook>
 </file>
